--- a/final_data_pipeline/output/311511longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311511longform_elec_options_nowhp.xlsx
@@ -743,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="J6">
         <v>8000</v>
@@ -758,10 +758,10 @@
         <v>490004.0478588709</v>
       </c>
       <c r="N6">
-        <v>2.2071875</v>
+        <v>2.499849249524808</v>
       </c>
       <c r="O6">
-        <v>2.486785714285714</v>
+        <v>2.870901733221348</v>
       </c>
       <c r="P6">
         <v>61.25050598235886</v>
@@ -796,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -811,10 +811,10 @@
         <v>448668.4427039697</v>
       </c>
       <c r="N7">
-        <v>2.2071875</v>
+        <v>2.004846509671994</v>
       </c>
       <c r="O7">
-        <v>2.486785714285714</v>
+        <v>2.229613377609108</v>
       </c>
       <c r="P7">
         <v>56.08355533799622</v>
@@ -849,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J8">
         <v>8000</v>
